--- a/src/main/resources/static/Fuel_Prices_Europe.xlsx
+++ b/src/main/resources/static/Fuel_Prices_Europe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Desktop\LICENTA\Backend\fleet-core-backend\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D84927-2623-4746-B0FA-F537BC6E053E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6C0ECC-5431-4AA0-8323-D6B7871CB6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3696" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,9 +59,6 @@
     <t>Cyprus</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t>Europe</t>
+  </si>
+  <si>
+    <t>Czechia</t>
   </si>
 </sst>
 </file>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>2</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1">
         <v>0.25</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1">
         <v>0.19</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1">
         <v>0.27</v>
@@ -786,7 +786,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>0.55000000000000004</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>0.41</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>0.33</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>1.04</v>
@@ -842,7 +842,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>0.72</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>2.3199999999999998</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>0.68</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>0.41</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>0.17</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1">
         <v>0.17</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
         <v>0.4</v>
@@ -940,7 +940,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>10.72</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>0.46</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>0.28000000000000003</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>0.26</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="1">
         <v>0.32</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="1">
         <v>0.12</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>0.13</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>0.52</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="1">
         <v>1.4999999999999999E-2</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1">
         <v>0.2</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1">
         <v>0.19</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1">
         <v>0.46</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="1">
         <v>0.08</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="1">
         <v>0.35</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
         <v>0.32</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
         <v>0.21</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1">
         <v>0.18</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>0.06</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="4">
         <v>0.82</v>
